--- a/web/Statistik/Players/CLS-CONTOH-CONTOH34.xlsx
+++ b/web/Statistik/Players/CLS-CONTOH-CONTOH34.xlsx
@@ -105,7 +105,7 @@
     <t>DATE</t>
   </si>
   <si>
-    <t>CLS vs YUG</t>
+    <t>CLS vs BPJ</t>
   </si>
 </sst>
 </file>
@@ -501,7 +501,7 @@
   <dimension ref="A1:Z3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
